--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0022-001 - Pimpinan Cabang dan Penyelia SRM Melakukan cancel pengajuan di setujui.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0022-001 - Pimpinan Cabang dan Penyelia SRM Melakukan cancel pengajuan di setujui.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C9AFC5-1411-4E19-89E4-9578EEA2B355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFB3739-DD31-4BE6-B625-944BECDED6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0314" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0022" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -98,9 +98,6 @@
     <t>SLN/91010SS</t>
   </si>
   <si>
-    <t>DGS-329</t>
-  </si>
-  <si>
     <t>Pimpinan Cabang dan Penyelia SRM. Melaukan cancel pengajuan di setujui</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Admin WEM</t>
+  </si>
+  <si>
+    <t>SCD0022-001</t>
   </si>
 </sst>
 </file>
@@ -537,14 +537,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
@@ -622,16 +622,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="11">
         <v>52326</v>
@@ -643,7 +643,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -652,11 +652,11 @@
       </c>
       <c r="M2" s="13" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>2022-09-06</v>
+        <v>2022-11-10</v>
       </c>
       <c r="N2" s="13" t="str">
         <f ca="1">TEXT(TODAY()+30,"yyyy-mm-dd")</f>
-        <v>2022-10-06</v>
+        <v>2022-12-10</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>21</v>
@@ -675,16 +675,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="15">
         <v>19340</v>
@@ -693,10 +693,10 @@
         <v>9</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" s="11">
         <v>50043</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="F4" s="11">
         <v>37679</v>
@@ -727,10 +727,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -739,11 +739,11 @@
       </c>
       <c r="M4" s="13" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>2022-09-06</v>
+        <v>2022-11-10</v>
       </c>
       <c r="N4" s="13" t="str">
         <f ca="1">TEXT(TODAY()+30,"yyyy-mm-dd")</f>
-        <v>2022-10-06</v>
+        <v>2022-12-10</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>21</v>
@@ -762,16 +762,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="F5" s="15">
         <v>37400</v>
@@ -780,10 +780,10 @@
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L5" s="11">
         <v>32587</v>
